--- a/Tides/Weblinks/weblinks.xlsx
+++ b/Tides/Weblinks/weblinks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>link</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>24/08/2022 22:39</t>
+  </si>
+  <si>
+    <t>https://csdms.colorado.edu/wiki/Model_download_portal</t>
+  </si>
+  <si>
+    <t>CDMS Model Repo</t>
+  </si>
+  <si>
+    <t>25/08/2022 12:09</t>
   </si>
 </sst>
 </file>
@@ -368,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,9 +412,21 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
